--- a/Python/API/autodata/testcase/培优接口用例.xlsx
+++ b/Python/API/autodata/testcase/培优接口用例.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="13175" tabRatio="500"/>
+    <workbookView windowWidth="22368" windowHeight="9935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CMS接口" sheetId="4" r:id="rId1"/>
     <sheet name="冰鉴司法信息" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CMS接口!$R$1:$R$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CMS接口!$S$1:$S$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">冰鉴司法信息!$S$1:$S$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="315">
   <si>
     <t>接口名称</t>
   </si>
@@ -373,9 +373,21 @@
     <t>&lt;Do="xinjianxiaoqu"&gt;</t>
   </si>
   <si>
+    <t>&lt;Di="tianjiajiaoshi"&gt;</t>
+  </si>
+  <si>
+    <t>classroomName</t>
+  </si>
+  <si>
+    <t>&lt;Do="tianjiajiaoshi"&gt;</t>
+  </si>
+  <si>
     <t>公共数据值</t>
   </si>
   <si>
+    <t>${local("teacherCameraAccount")}</t>
+  </si>
+  <si>
     <t>登录用户名</t>
   </si>
   <si>
@@ -451,22 +463,19 @@
     <t>模板名称</t>
   </si>
   <si>
-    <t>campusName</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>o</t>
+    <t>&lt;Di="fengcengdengji"&gt;</t>
+  </si>
+  <si>
+    <t>levelName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;Do</t>
     </r>
     <r>
       <rPr>
@@ -474,44 +483,119 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>="xinjianxiaoqu"&gt;</t>
+      <t>="fengcengdengji"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;Do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="tianjiajiaoshi"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Di="tianjiajuese"&gt;</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;Do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="tianjiajuese"&gt;</t>
     </r>
   </si>
   <si>
     <t>LX-A1114-0001</t>
   </si>
   <si>
-    <t>CMS新建校区</t>
+    <t>新建分层等级</t>
+  </si>
+  <si>
+    <t>post.js</t>
+  </si>
+  <si>
+    <t>/basic/level/saveLevels</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>fengcengdengji.vm</t>
+  </si>
+  <si>
+    <t>${selfRandom('接自')}</t>
+  </si>
+  <si>
+    <t>LX-A1114-0002</t>
+  </si>
+  <si>
+    <t>添加教室</t>
+  </si>
+  <si>
+    <t>/basic/campus/saveClassroom</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>tianjiajiaoshi.vm</t>
+  </si>
+  <si>
+    <t>LX-A1114-0003</t>
+  </si>
+  <si>
+    <t>添加角色</t>
   </si>
   <si>
     <t>post.ue</t>
   </si>
   <si>
-    <t>/basic/campus/saveCampus</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>xinjianxiaoqu.vm</t>
-  </si>
-  <si>
-    <t>${selfRandom('接自',5)}</t>
-  </si>
-  <si>
-    <t>${local("campusName")}</t>
-  </si>
-  <si>
-    <t>LX-A1114-0002</t>
-  </si>
-  <si>
-    <t>post.js</t>
-  </si>
-  <si>
-    <t>LX-A1114-0003</t>
+    <t>/system/role/saveSchoolRole</t>
+  </si>
+  <si>
+    <t>tianjiajuese.vm</t>
+  </si>
+  <si>
+    <t>${selfRandom('自教')}</t>
   </si>
   <si>
     <t>LX-A1114-0004</t>
+  </si>
+  <si>
+    <t>菜单权限分配</t>
+  </si>
+  <si>
+    <t>put.ue</t>
+  </si>
+  <si>
+    <t>/system/sysUser/updateUserAndMenu</t>
+  </si>
+  <si>
+    <t>caidanquanxian.vm</t>
   </si>
   <si>
     <t>LX-A1114-0005</t>
@@ -4354,10 +4438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -4473,6 +4557,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4480,14 +4571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4516,9 +4600,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4546,52 +4661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4609,7 +4678,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4696,7 +4780,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4708,163 +4948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E0EC"/>
-        <bgColor rgb="FFF2DCDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4876,8 +4960,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE6E0EC"/>
+        <bgColor rgb="FFF2DCDB"/>
       </patternFill>
     </fill>
     <fill>
@@ -4888,7 +4972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4932,8 +5016,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4942,7 +5041,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4988,6 +5087,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5002,30 +5110,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5034,10 +5118,10 @@
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5046,16 +5130,16 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
@@ -5064,121 +5148,121 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyBorder="0" applyProtection="0">
@@ -5397,14 +5481,14 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -6777,12 +6861,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMI56"/>
+  <dimension ref="A1:AMJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6795,25 +6879,25 @@
     <col min="6" max="6" width="20" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.7777777777778" style="9" customWidth="1"/>
     <col min="8" max="9" width="13" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.6296296296296" style="9" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" style="9" customWidth="1"/>
-    <col min="12" max="12" width="25.8796296296296" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.6296296296296" style="9" customWidth="1"/>
-    <col min="14" max="15" width="11.6296296296296" style="9" customWidth="1"/>
-    <col min="16" max="16" width="20" style="9" customWidth="1"/>
-    <col min="17" max="17" width="28.1296296296296" style="9" customWidth="1"/>
-    <col min="18" max="18" width="16" style="9" customWidth="1"/>
-    <col min="19" max="20" width="11.6296296296296" style="9" customWidth="1"/>
-    <col min="21" max="21" width="26.5" style="9" customWidth="1"/>
-    <col min="22" max="22" width="11.6296296296296" style="9" customWidth="1"/>
-    <col min="23" max="23" width="38.6296296296296" style="9" customWidth="1"/>
-    <col min="24" max="24" width="11.6296296296296" style="9" customWidth="1"/>
-    <col min="25" max="25" width="35.1296296296296" style="9" customWidth="1"/>
-    <col min="26" max="41" width="11.6296296296296" style="9" customWidth="1"/>
-    <col min="42" max="1023" width="9" style="9" customWidth="1"/>
+    <col min="10" max="11" width="13.6296296296296" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.3796296296296" style="9" customWidth="1"/>
+    <col min="13" max="13" width="25.8796296296296" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.6296296296296" style="9" customWidth="1"/>
+    <col min="15" max="16" width="11.6296296296296" style="9" customWidth="1"/>
+    <col min="17" max="17" width="20" style="9" customWidth="1"/>
+    <col min="18" max="18" width="28.1296296296296" style="9" customWidth="1"/>
+    <col min="19" max="19" width="16" style="9" customWidth="1"/>
+    <col min="20" max="21" width="11.6296296296296" style="9" customWidth="1"/>
+    <col min="22" max="22" width="26.5" style="9" customWidth="1"/>
+    <col min="23" max="23" width="11.6296296296296" style="9" customWidth="1"/>
+    <col min="24" max="24" width="38.6296296296296" style="9" customWidth="1"/>
+    <col min="25" max="25" width="11.6296296296296" style="9" customWidth="1"/>
+    <col min="26" max="26" width="35.1296296296296" style="9" customWidth="1"/>
+    <col min="27" max="42" width="11.6296296296296" style="9" customWidth="1"/>
+    <col min="43" max="1024" width="9" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6826,9 +6910,9 @@
       <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="42"/>
-    </row>
-    <row r="2" ht="33.75" customHeight="1" spans="1:1023">
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" ht="33.75" customHeight="1" spans="1:1024">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -6841,10 +6925,10 @@
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AMI2"/>
+      <c r="AMJ2"/>
     </row>
     <row r="3" ht="20.1" customHeight="1"/>
-    <row r="4" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+    <row r="4" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6854,23 +6938,29 @@
       <c r="C4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="43"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="43"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
       <c r="U4" s="43"/>
       <c r="V4" s="43"/>
       <c r="W4" s="43"/>
@@ -6878,140 +6968,155 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
       <c r="AA4" s="43"/>
-    </row>
-    <row r="5" ht="48" customHeight="1" spans="1:1023">
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" ht="48" customHeight="1" spans="1:1024">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="33"/>
       <c r="Q5" s="33"/>
-      <c r="AMI5"/>
-    </row>
-    <row r="6" ht="36" spans="3:29">
+      <c r="R5" s="33"/>
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" ht="36" spans="3:30">
       <c r="C6" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="M6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="P6" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X6" s="23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>30</v>
+      <c r="AD6" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:35">
       <c r="A8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>47</v>
+      </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -7033,40 +7138,37 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="43"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:40">
+    <row r="9" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:41">
       <c r="A9" s="21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="36"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="73"/>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
@@ -7078,10 +7180,10 @@
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="36"/>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="36"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="35"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -7089,31 +7191,42 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
+      <c r="AO9" s="2"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="23"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="37"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="37"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="37"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -7131,30 +7244,43 @@
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
+      <c r="AO10" s="9"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="54"/>
+        <v>60</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="23"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="9"/>
+      <c r="N11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="37"/>
+      <c r="R11" s="37"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="37"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -7172,30 +7298,41 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
+      <c r="AO11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="38"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="38"/>
+      <c r="R12" s="45"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="38"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -7213,10 +7350,11 @@
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
+      <c r="AO12" s="9"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A13" s="21" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -7229,14 +7367,14 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="38"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="38"/>
+      <c r="R13" s="45"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="38"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -7254,13 +7392,14 @@
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
+      <c r="AO13" s="9"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A14" s="21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="3"/>
@@ -7272,14 +7411,14 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="37"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="37"/>
+      <c r="R14" s="45"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="37"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -7297,10 +7436,11 @@
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="AO14" s="9"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="21" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -7310,12 +7450,12 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="M15" s="23"/>
-      <c r="T15" s="37"/>
+      <c r="N15" s="23"/>
+      <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="21" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -7326,9 +7466,9 @@
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -7338,12 +7478,12 @@
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
-      <c r="M17" s="37"/>
-      <c r="T17" s="37"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="N17" s="37"/>
+      <c r="U17" s="37"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="21" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -7353,12 +7493,12 @@
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
-      <c r="M18" s="37"/>
-      <c r="T18" s="37"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="N18" s="37"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="21" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="52"/>
@@ -7368,13 +7508,13 @@
       <c r="G19" s="52"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="M19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="Y19" s="38"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="N19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="Z19" s="38"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="21" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="52"/>
@@ -7384,13 +7524,13 @@
       <c r="G20" s="52"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="M20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="Y20" s="38"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="N20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="Z20" s="38"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="52"/>
@@ -7400,9 +7540,9 @@
       <c r="G21" s="52"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
-      <c r="Y21" s="38"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" s="38"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="51"/>
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
@@ -7412,9 +7552,9 @@
       <c r="G22" s="54"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
-      <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="51"/>
       <c r="B23" s="53"/>
       <c r="C23" s="55"/>
@@ -7424,10 +7564,10 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
-      <c r="Y23" s="2"/>
-      <c r="AA23" s="37"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="Z23" s="2"/>
+      <c r="AB23" s="37"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="51"/>
       <c r="B24" s="53"/>
       <c r="C24" s="55"/>
@@ -7437,10 +7577,10 @@
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
-      <c r="Y24" s="2"/>
-      <c r="AA24" s="37"/>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="Z24" s="2"/>
+      <c r="AB24" s="37"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="51"/>
       <c r="B25" s="53"/>
       <c r="C25" s="55"/>
@@ -7450,10 +7590,10 @@
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
-      <c r="Y25" s="2"/>
-      <c r="AA25" s="37"/>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="Z25" s="2"/>
+      <c r="AB25" s="37"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="51"/>
       <c r="B26" s="56"/>
       <c r="C26" s="55"/>
@@ -7463,10 +7603,10 @@
       <c r="G26" s="54"/>
       <c r="H26" s="54"/>
       <c r="I26" s="54"/>
-      <c r="Y26" s="2"/>
-      <c r="AA26" s="18"/>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="Z26" s="2"/>
+      <c r="AB26" s="18"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="51"/>
       <c r="B27" s="57"/>
       <c r="C27" s="55"/>
@@ -7476,8 +7616,8 @@
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
-      <c r="Y27" s="2"/>
-      <c r="AA27" s="37"/>
+      <c r="Z27" s="2"/>
+      <c r="AB27" s="37"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="51"/>
@@ -7490,7 +7630,7 @@
       <c r="H28" s="54"/>
       <c r="I28" s="54"/>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:18">
+    <row r="29" s="8" customFormat="1" spans="1:19">
       <c r="A29" s="59"/>
       <c r="B29" s="57"/>
       <c r="C29" s="60"/>
@@ -7500,7 +7640,7 @@
       <c r="G29" s="63"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
-      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="51"/>
@@ -7524,7 +7664,7 @@
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="51"/>
       <c r="B32" s="57"/>
       <c r="C32" s="51"/>
@@ -7534,7 +7674,7 @@
       <c r="G32" s="52"/>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
-      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="51"/>
@@ -7728,11 +7868,11 @@
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
     </row>
-    <row r="56" spans="20:20">
-      <c r="T56" s="39"/>
+    <row r="56" spans="21:21">
+      <c r="U56" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="R1:R8">
+  <autoFilter ref="S1:S8">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
@@ -7827,19 +7967,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="S1" s="42"/>
     </row>
     <row r="2" ht="33.75" customHeight="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1"/>
@@ -7848,19 +7988,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -7889,16 +8029,16 @@
     </row>
     <row r="5" ht="48" customHeight="1" spans="1:19">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="17"/>
@@ -7915,137 +8055,137 @@
     </row>
     <row r="6" ht="48" spans="4:30">
       <c r="D6" s="9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="P6" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AC6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="AD6" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:40">
       <c r="A8" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -8074,26 +8214,26 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:41">
       <c r="A9" s="21" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="23" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -8131,31 +8271,31 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A10" s="21" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="23" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="13" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -8189,26 +8329,26 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A11" s="21" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="23" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -8245,26 +8385,26 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A12" s="21" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="23" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -8301,26 +8441,26 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A13" s="21" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="23" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -8357,26 +8497,26 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A14" s="21" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -8413,24 +8553,24 @@
     </row>
     <row r="15" s="4" customFormat="1" ht="77.1" customHeight="1" spans="1:52">
       <c r="A15" s="21" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="22" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="23" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -8441,7 +8581,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="37"/>
       <c r="R15" s="45" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -8480,24 +8620,24 @@
     </row>
     <row r="16" s="4" customFormat="1" ht="59.1" customHeight="1" spans="1:52">
       <c r="A16" s="21" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="22" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="23" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -8508,7 +8648,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="37"/>
       <c r="R16" s="45" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -8547,24 +8687,24 @@
     </row>
     <row r="17" s="4" customFormat="1" ht="75.95" customHeight="1" spans="1:52">
       <c r="A17" s="21" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="22" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -8575,7 +8715,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="37"/>
       <c r="R17" s="45" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -8614,24 +8754,24 @@
     </row>
     <row r="18" s="5" customFormat="1" ht="57.95" customHeight="1" spans="1:41">
       <c r="A18" s="21" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="22" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="23" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -8668,24 +8808,24 @@
     </row>
     <row r="19" s="4" customFormat="1" ht="62.1" customHeight="1" spans="1:41">
       <c r="A19" s="21" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="22" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="23" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -8722,24 +8862,24 @@
     </row>
     <row r="20" s="4" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A20" s="21" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="22" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="23" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -8776,24 +8916,24 @@
     </row>
     <row r="21" s="4" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A21" s="21" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="22" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="23" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -8830,24 +8970,24 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A22" s="21" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="22" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -8884,24 +9024,24 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="57.95" customHeight="1" spans="1:41">
       <c r="A23" s="21" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="22" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="23" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -8938,24 +9078,24 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="66.95" customHeight="1" spans="1:41">
       <c r="A24" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="22" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="23" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -8992,24 +9132,24 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="57" customHeight="1" spans="1:41">
       <c r="A25" s="21" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="22" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="23" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -9020,7 +9160,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="37"/>
       <c r="R25" s="37" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -9048,24 +9188,24 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="62.1" customHeight="1" spans="1:41">
       <c r="A26" s="21" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -9076,7 +9216,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="38"/>
       <c r="R26" s="46" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -9104,24 +9244,24 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="56.1" customHeight="1" spans="1:41">
       <c r="A27" s="21" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="22" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="23" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -9159,24 +9299,24 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="54" customHeight="1" spans="1:41">
       <c r="A28" s="21" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="22" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="23" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -9214,24 +9354,24 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A29" s="21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="22" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="23" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -9269,24 +9409,24 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A30" s="21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="22" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="23" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -9324,24 +9464,24 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A31" s="21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -9379,24 +9519,24 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A32" s="21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="23" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -9434,24 +9574,24 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A33" s="21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="23" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -9489,24 +9629,24 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A34" s="21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="23" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -9544,24 +9684,24 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A35" s="21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="23" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -9599,24 +9739,24 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A36" s="21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="22" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="23" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -9654,24 +9794,24 @@
     </row>
     <row r="37" s="6" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A37" s="21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="22" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="23" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -9709,24 +9849,24 @@
     </row>
     <row r="38" s="6" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A38" s="21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="22" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="23" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -9738,7 +9878,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="37" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -9766,24 +9906,24 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A39" s="21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="23" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -9795,7 +9935,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="37" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -9823,24 +9963,24 @@
     </row>
     <row r="40" s="7" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A40" s="26" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="27" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="26" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
@@ -9853,7 +9993,7 @@
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
       <c r="S40" s="17" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="T40" s="40"/>
       <c r="U40" s="49"/>
@@ -9880,24 +10020,24 @@
     </row>
     <row r="41" s="7" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A41" s="26" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="29" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="26" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
@@ -9910,7 +10050,7 @@
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
       <c r="S41" s="40" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="T41" s="40"/>
       <c r="U41" s="49"/>
@@ -9937,24 +10077,24 @@
     </row>
     <row r="42" s="7" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A42" s="26" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="27" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="26" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
@@ -9967,7 +10107,7 @@
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
       <c r="S42" s="17" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="T42" s="40"/>
       <c r="U42" s="49"/>
@@ -9994,24 +10134,24 @@
     </row>
     <row r="43" s="7" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A43" s="26" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="27" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="26" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
@@ -10024,7 +10164,7 @@
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
       <c r="S43" s="17" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="T43" s="40"/>
       <c r="U43" s="49"/>
@@ -10051,24 +10191,24 @@
     </row>
     <row r="44" s="7" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A44" s="26" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="26" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -10081,7 +10221,7 @@
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
       <c r="S44" s="9" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="T44" s="40"/>
       <c r="U44" s="49"/>
@@ -10108,24 +10248,24 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="54" customHeight="1" spans="1:41">
       <c r="A45" s="21" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="22" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="21" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -10138,7 +10278,7 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="38" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="37"/>
@@ -10165,24 +10305,24 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A46" s="21" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="22" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -10195,7 +10335,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="38" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="37"/>
@@ -10222,24 +10362,24 @@
     </row>
     <row r="47" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A47" s="21" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="22" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -10254,7 +10394,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
@@ -10279,24 +10419,24 @@
     </row>
     <row r="48" s="6" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A48" s="21" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="22" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="21" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -10311,7 +10451,7 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="37" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
@@ -10336,24 +10476,24 @@
     </row>
     <row r="49" s="6" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A49" s="21" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="22" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>218</v>
-      </c>
       <c r="G49" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -10368,7 +10508,7 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="37" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
@@ -10393,24 +10533,24 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A50" s="21" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="22" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -10425,7 +10565,7 @@
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="37" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
@@ -10450,24 +10590,24 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A51" s="21" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="22" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="21" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -10482,7 +10622,7 @@
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="37" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -10507,24 +10647,24 @@
     </row>
     <row r="52" s="6" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A52" s="21" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="30" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -10538,7 +10678,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="U52" s="37"/>
       <c r="V52" s="9"/>
@@ -10564,24 +10704,24 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A53" s="21" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="30" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -10589,7 +10729,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="23" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -10620,24 +10760,24 @@
     </row>
     <row r="54" s="3" customFormat="1" ht="37.2" spans="1:41">
       <c r="A54" s="21" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="30" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -10646,7 +10786,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -10677,24 +10817,24 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A55" s="21" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B55" s="31"/>
       <c r="C55" s="30" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -10704,7 +10844,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
@@ -10734,24 +10874,24 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:41">
       <c r="A56" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="30" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -10764,7 +10904,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="50" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="37"/>
@@ -10791,215 +10931,215 @@
     </row>
     <row r="57" ht="49.2" spans="1:21">
       <c r="A57" s="21" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="30" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="N57" s="23"/>
       <c r="S57" s="50" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="U57" s="37"/>
     </row>
     <row r="58" ht="61.2" spans="1:19">
       <c r="A58" s="21" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="30" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="S58" s="50" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" ht="49.2" spans="1:19">
       <c r="A59" s="21" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="30" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="S59" s="50" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" ht="48" spans="1:21">
       <c r="A60" s="21" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="30" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="9" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="U60" s="38"/>
     </row>
     <row r="61" ht="48" spans="1:21">
       <c r="A61" s="21" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="30" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="N61" s="23"/>
       <c r="O61" s="9" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="U61" s="38"/>
     </row>
     <row r="62" ht="48" spans="1:20">
       <c r="A62" s="21" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="30" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" ht="48" spans="1:20">
       <c r="A63" s="21" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="30" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" ht="48" spans="1:21">
       <c r="A64" s="21" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="30" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="N64" s="23"/>
       <c r="T64" s="9" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="U64" s="37"/>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="51" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>

--- a/Python/API/autodata/testcase/培优接口用例.xlsx
+++ b/Python/API/autodata/testcase/培优接口用例.xlsx
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="315">
   <si>
     <t>接口名称</t>
   </si>
@@ -385,6 +385,9 @@
     <t>公共数据值</t>
   </si>
   <si>
+    <t>${selfRandom('自教')}</t>
+  </si>
+  <si>
     <t>${local("teacherCameraAccount")}</t>
   </si>
   <si>
@@ -487,6 +490,12 @@
     </r>
   </si>
   <si>
+    <t>&lt;Di="tianjiajuese"&gt;</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -501,30 +510,6 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>="tianjiajiaoshi"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Di="tianjiajuese"&gt;</t>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;Do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>="tianjiajuese"&gt;</t>
     </r>
   </si>
@@ -541,46 +526,46 @@
     <t>/basic/level/saveLevels</t>
   </si>
   <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>fengcengdengji.vm</t>
+  </si>
+  <si>
+    <t>${selfRandom('接自')}</t>
+  </si>
+  <si>
+    <t>LX-A1114-0002</t>
+  </si>
+  <si>
+    <t>添加教室</t>
+  </si>
+  <si>
+    <t>/basic/campus/saveClassroom</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>tianjiajiaoshi.vm</t>
+  </si>
+  <si>
+    <t>LX-A1114-0003</t>
+  </si>
+  <si>
+    <t>添加角色</t>
+  </si>
+  <si>
+    <t>post.ue</t>
+  </si>
+  <si>
+    <t>/system/role/saveSchoolRole</t>
+  </si>
+  <si>
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>fengcengdengji.vm</t>
-  </si>
-  <si>
-    <t>${selfRandom('接自')}</t>
-  </si>
-  <si>
-    <t>LX-A1114-0002</t>
-  </si>
-  <si>
-    <t>添加教室</t>
-  </si>
-  <si>
-    <t>/basic/campus/saveClassroom</t>
-  </si>
-  <si>
-    <t>保存成功</t>
-  </si>
-  <si>
-    <t>tianjiajiaoshi.vm</t>
-  </si>
-  <si>
-    <t>LX-A1114-0003</t>
-  </si>
-  <si>
-    <t>添加角色</t>
-  </si>
-  <si>
-    <t>post.ue</t>
-  </si>
-  <si>
-    <t>/system/role/saveSchoolRole</t>
-  </si>
-  <si>
     <t>tianjiajuese.vm</t>
-  </si>
-  <si>
-    <t>${selfRandom('自教')}</t>
   </si>
   <si>
     <t>LX-A1114-0004</t>
@@ -4438,10 +4423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -4557,14 +4542,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4572,6 +4601,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4592,22 +4629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4615,7 +4639,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4637,25 +4661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4672,28 +4679,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4780,8 +4765,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB9CDE5"/>
+        <bgColor rgb="FFC6D9F1"/>
       </patternFill>
     </fill>
     <fill>
@@ -4792,13 +4777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E0EC"/>
+        <bgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4810,13 +4831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4828,79 +4855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4918,19 +4885,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4942,37 +4927,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9CDE5"/>
-        <bgColor rgb="FFC6D9F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E0EC"/>
-        <bgColor rgb="FFF2DCDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5013,11 +4998,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5039,9 +5063,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5061,52 +5087,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5115,157 +5100,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyBorder="0" applyProtection="0">
@@ -5484,10 +5469,10 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -6863,10 +6848,10 @@
   <sheetPr/>
   <dimension ref="A1:AMJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6992,151 +6977,145 @@
       <c r="R5" s="33"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" ht="36" spans="3:30">
+    <row r="6" ht="36" spans="2:30">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="P6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="AD6" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:35">
-      <c r="A8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="71" t="s">
+    </row>
+    <row r="8" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:32">
+      <c r="A8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="71" t="s">
         <v>40</v>
       </c>
+      <c r="F8" s="71" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K8" s="70" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="69" t="s">
         <v>47</v>
       </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="44"/>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
+      <c r="AA8" s="43"/>
       <c r="AB8" s="43"/>
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
       <c r="AE8" s="43"/>
       <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:41">
       <c r="A9" s="21" t="s">
@@ -7161,7 +7140,6 @@
         <v>54</v>
       </c>
       <c r="J9" s="34"/>
-      <c r="K9" s="3"/>
       <c r="L9" s="35"/>
       <c r="M9" s="36"/>
       <c r="N9" s="73"/>
@@ -7213,9 +7191,6 @@
         <v>59</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -7260,18 +7235,20 @@
         <v>63</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="23"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="37"/>
@@ -7314,7 +7291,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>70</v>
@@ -7967,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S1" s="42"/>
     </row>
@@ -8035,7 +8012,7 @@
         <v>89</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>90</v>
@@ -8058,79 +8035,79 @@
         <v>91</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>92</v>
       </c>
       <c r="K6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="R6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="AD6" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="4:4">
@@ -8140,13 +8117,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="30.95" customHeight="1" spans="1:40">
       <c r="A8" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>95</v>
@@ -8155,7 +8132,7 @@
         <v>96</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>97</v>
